--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025306D3-6C86-437C-87A7-E0B275F4CA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0947ED-29A5-42EB-B909-A760DDB0D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -97,54 +97,6 @@
   </si>
   <si>
     <t>README.md</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Wed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Thu</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Fri</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sun</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>One person in charge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Submission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Required</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Four .md files</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Due Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -341,6 +293,54 @@
   </si>
   <si>
     <t>https://github.com/cp3402-students/CMS-SP52-2022-Group-2/blob/main/site.md</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Thu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fri</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One person in charge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Submission</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Four .md files</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Required</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Due Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -391,13 +391,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
@@ -412,6 +405,13 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -430,12 +430,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -449,6 +443,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,40 +484,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -530,9 +501,38 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -832,8 +832,8 @@
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="F6" s="5" t="s">
-        <v>30</v>
+      <c r="F6" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.3">
@@ -841,7 +841,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.3">
@@ -849,7 +849,7 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.3">
@@ -857,7 +857,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -865,7 +865,7 @@
         <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -873,37 +873,37 @@
         <v>5</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>35</v>
+      <c r="F12" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="G13" s="25" t="s">
-        <v>43</v>
+      <c r="G13" s="10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.3">
       <c r="G14" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="25" t="s">
-        <v>41</v>
+      <c r="G15" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="2" t="s">
@@ -912,69 +912,69 @@
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="17"/>
-      <c r="F17" s="5" t="s">
+      <c r="B17" s="5"/>
+      <c r="F17" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="19" t="s">
-        <v>10</v>
-      </c>
-      <c r="G23" s="25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E25" s="2" t="s">
@@ -983,74 +983,74 @@
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="F26" s="5" t="s">
-        <v>30</v>
+      <c r="F26" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G27" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G28" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G29" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G30" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G31" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="G32" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G33" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="H33" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F34" s="6" t="s">
-        <v>35</v>
+      <c r="F34" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G35" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G36" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G37" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="G38" s="25" t="s">
-        <v>41</v>
+      <c r="G38" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.3">
@@ -1060,39 +1060,39 @@
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.3">
-      <c r="F40" s="5" t="s">
-        <v>30</v>
+      <c r="F40" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G41" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G42" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.3">
       <c r="G43" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.3">
       <c r="E50" t="s">
         <v>7</v>
       </c>
-      <c r="F50" s="5" t="s">
-        <v>30</v>
+      <c r="F50" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.3">
@@ -1133,11 +1133,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5797D228-BA09-49CC-A1A9-7F6798A9E5DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7794AFC9-B11D-479E-A43F-08D6EC184311}">
   <dimension ref="B2:T38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B14"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1148,443 +1148,444 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="7"/>
-      <c r="C2" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="R2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="S2" s="11" t="s">
-        <v>20</v>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="R2" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="7"/>
-      <c r="C3" s="12">
+      <c r="B3" s="11"/>
+      <c r="C3" s="16">
         <v>45041</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="16">
         <v>45042</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="16">
         <v>45043</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="16">
         <v>45044</v>
       </c>
-      <c r="G3" s="12">
+      <c r="G3" s="16">
         <v>45045</v>
       </c>
-      <c r="H3" s="12">
+      <c r="H3" s="16">
         <v>45046</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="17">
         <v>45047</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="17">
         <v>45048</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="17">
         <v>45049</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="17">
         <v>45050</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="17">
         <v>45051</v>
       </c>
-      <c r="N3" s="13">
+      <c r="N3" s="17">
         <v>45052</v>
       </c>
-      <c r="O3" s="13">
+      <c r="O3" s="17">
         <v>45053</v>
       </c>
-      <c r="P3" s="14">
+      <c r="P3" s="18">
         <v>45054</v>
       </c>
-      <c r="Q3" s="14">
+      <c r="Q3" s="18">
         <v>45055</v>
       </c>
-      <c r="R3" s="14">
+      <c r="R3" s="18">
         <v>45056</v>
       </c>
-      <c r="S3" s="15">
+      <c r="S3" s="19">
         <v>45057</v>
       </c>
-      <c r="T3" s="3"/>
+      <c r="T3" s="20"/>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7"/>
-      <c r="S4" s="16"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="21"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-      <c r="S5" s="16"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="21"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-      <c r="S6" s="16"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="21"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="16"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="21"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="16"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="21"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="16"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
+      <c r="R9" s="11"/>
+      <c r="S9" s="21"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="16"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="11"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
+      <c r="R10" s="11"/>
+      <c r="S10" s="21"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="16"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+      <c r="R11" s="11"/>
+      <c r="S11" s="21"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="18"/>
-      <c r="O12" s="18"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-      <c r="S12" s="16"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="21"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="18"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="16"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="21"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="18"/>
-      <c r="Q14" s="18"/>
-      <c r="R14" s="18"/>
-      <c r="S14" s="16"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="21"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S15" s="4"/>
+      <c r="S15" s="23"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="S16" s="4"/>
+      <c r="S16" s="23"/>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="S17" s="4"/>
+        <v>55</v>
+      </c>
+      <c r="S17" s="23"/>
     </row>
     <row r="18" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B18" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="S18" s="4"/>
+      <c r="B18" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="S18" s="23"/>
     </row>
     <row r="19" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="S19" s="4"/>
+      <c r="B19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S19" s="23"/>
     </row>
     <row r="20" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B20" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="S20" s="4"/>
+      <c r="B20" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="S20" s="23"/>
     </row>
     <row r="21" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S21" s="4"/>
+      <c r="B21" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="S21" s="23"/>
     </row>
     <row r="22" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S22" s="4"/>
+      <c r="S22" s="23"/>
     </row>
     <row r="23" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S23" s="4"/>
+      <c r="S23" s="23"/>
     </row>
     <row r="24" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S24" s="4"/>
+      <c r="S24" s="23"/>
     </row>
     <row r="25" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S25" s="4"/>
+      <c r="S25" s="23"/>
     </row>
     <row r="26" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S26" s="4"/>
+      <c r="S26" s="23"/>
     </row>
     <row r="27" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S27" s="4"/>
+      <c r="S27" s="23"/>
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S28" s="4"/>
+      <c r="S28" s="23"/>
     </row>
     <row r="29" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S29" s="4"/>
+      <c r="S29" s="23"/>
     </row>
     <row r="30" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S30" s="4"/>
+      <c r="S30" s="23"/>
     </row>
     <row r="31" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S31" s="4"/>
+      <c r="S31" s="23"/>
     </row>
     <row r="32" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="S32" s="4"/>
+      <c r="S32" s="23"/>
     </row>
     <row r="33" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S33" s="4"/>
+      <c r="S33" s="23"/>
     </row>
     <row r="34" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S34" s="4"/>
+      <c r="S34" s="23"/>
     </row>
     <row r="35" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S35" s="4"/>
+      <c r="S35" s="23"/>
     </row>
     <row r="36" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S36" s="4"/>
+      <c r="S36" s="23"/>
     </row>
     <row r="37" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S37" s="4"/>
+      <c r="S37" s="23"/>
     </row>
     <row r="38" spans="19:19" x14ac:dyDescent="0.3">
-      <c r="S38" s="4"/>
+      <c r="S38" s="23"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0947ED-29A5-42EB-B909-A760DDB0D15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2AE5AB-9673-4E4E-A8A8-8FFC473ABE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Theme</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>Due Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a production site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Create a staging site</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>One person in charge of</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -815,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:I64"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F44" sqref="F44"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1079,24 +1091,62 @@
         <v>47</v>
       </c>
     </row>
+    <row r="44" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F44" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G45" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="G46" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="E47" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+      <c r="F48" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>35</v>
+      </c>
+      <c r="I49" t="s">
+        <v>34</v>
+      </c>
+    </row>
     <row r="50" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E50" t="s">
-        <v>7</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>18</v>
+      <c r="F50" s="4" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="5:9" x14ac:dyDescent="0.3">
       <c r="G51" t="s">
-        <v>35</v>
-      </c>
-      <c r="I51" t="s">
-        <v>34</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="53" spans="5:9" x14ac:dyDescent="0.3">
-      <c r="E53" t="s">
+      <c r="G53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="5:9" x14ac:dyDescent="0.3">
+      <c r="E54" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1136,7 +1186,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7794AFC9-B11D-479E-A43F-08D6EC184311}">
   <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>

--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2AE5AB-9673-4E4E-A8A8-8FFC473ABE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA701097-A276-43B5-A0AC-2C8220F03E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
-    <sheet name="Gattn Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Gantt Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -827,7 +827,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B5:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
@@ -1186,8 +1186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7794AFC9-B11D-479E-A43F-08D6EC184311}">
   <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA701097-A276-43B5-A0AC-2C8220F03E83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8BEC1-BA70-4A2A-8518-78A289D0A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
   <si>
     <t>Theme</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,12 +355,16 @@
     <t>One person in charge of</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -424,6 +428,14 @@
       <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -492,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -545,6 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -825,14 +838,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B5:I64"/>
+  <dimension ref="B1:I64"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="1" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="26" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>13</v>
@@ -1186,7 +1204,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7794AFC9-B11D-479E-A43F-08D6EC184311}">
   <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>

--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C8BEC1-BA70-4A2A-8518-78A289D0A751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD33D4-356E-4FE1-9C9C-256BC7762B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
   <si>
     <t>Theme</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -353,10 +353,6 @@
   </si>
   <si>
     <t>One person in charge of</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -841,15 +837,13 @@
   <dimension ref="B1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B1" s="26" t="s">
-        <v>63</v>
-      </c>
+      <c r="B1" s="26"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">

--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19CD33D4-356E-4FE1-9C9C-256BC7762B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63822F74-9D13-43A4-90E3-224067C6FA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10260" yWindow="2260" windowWidth="14190" windowHeight="11650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
     <sheet name="Gantt Chart" sheetId="2" r:id="rId2"/>
+    <sheet name="Design Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="161">
   <si>
     <t>Theme</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -355,12 +356,418 @@
     <t>One person in charge of</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>specialize in Math and Science from Primary to Junior College</t>
+  </si>
+  <si>
+    <t>Bookings are essential. Could I please suggest that you make your booking as soon as possible so that you will not be disappointed?</t>
+  </si>
+  <si>
+    <t>Please contact us on the Center’s email or BaizonnLearning@gmail.com</t>
+  </si>
+  <si>
+    <t>Or Phone Lum on +65 62811816</t>
+  </si>
+  <si>
+    <t>Address: 1007A Upper Serangoon Road</t>
+  </si>
+  <si>
+    <t>Christmas buffet dinner will be arranged for all guests. Vegetarian menu is available too. Kindly indicate your preference during booking.</t>
+  </si>
+  <si>
+    <t>Unique Baizonn T-Shirt will be given free for all confirmed students during the Open House.</t>
+  </si>
+  <si>
+    <t>Home Tab:</t>
+  </si>
+  <si>
+    <t>Welcome to BAIZONN</t>
+  </si>
+  <si>
+    <t>Founded in 2018, we believe in Establishing a Strong Foundation build on Grasping Maths and Science Principles.</t>
+  </si>
+  <si>
+    <t>At Baizonn, we Equip your child to ace the semester. We provide up-to-date curriculum and targeted lesson to set your child up for success in the coming terms.</t>
+  </si>
+  <si>
+    <t>F.A.S.T. = Firm Foundation, Apply, Surpass, Top</t>
+  </si>
+  <si>
+    <t>S.T.E.M : Science, Technology, Engineering, Maths</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Goals</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Increase students' enrolment</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Target Audience</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Parents + high-school studnets.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Site</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: learning center "BaizonnLearningCenter" </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NOTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordPress posts:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current sessions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Promotions</t>
+  </si>
+  <si>
+    <t>Promotions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Staff details</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WordPress pages:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About us…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dynamic</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Event:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name: Open House for 2023 Intake</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date: 23rd December 2022, Friday 3pm to 9pm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Static - not change frequently, not author, data, tag…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>etc. (events)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>General Inquiries: 62811816, or BaizonnLearning@gmail.com</t>
+  </si>
+  <si>
+    <t>Contatct Details:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A center image -- Named: Centre Logo 9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nurturing a Love For Learning</t>
+  </si>
+  <si>
+    <t>For over 5 years, we help students achieve success in school and in life by nurturing a love for learning.</t>
+  </si>
+  <si>
+    <t>From primary school to junior college, our students enjoy fun, interactive and relevant lessons and are empowered to think beyond the confines of the classroom.</t>
+  </si>
+  <si>
+    <t>Preparing Students To Achieve Success</t>
+  </si>
+  <si>
+    <t>Developing Confident and Successful Learners</t>
+  </si>
+  <si>
+    <t>Our students are at the centre of everything we do and their well-being and success in learning matter to us.</t>
+  </si>
+  <si>
+    <t>While we educate our students, we also equip them with the right knowledge, skills and attitudes that help them solve problems, think big and seek excellence.</t>
+  </si>
+  <si>
+    <t>Passionate Teachers That Make A Difference</t>
+  </si>
+  <si>
+    <t>Our teachers motivate and nurture every student to achieve their best and to build the right attitudes to ingrain a love for learning.</t>
+  </si>
+  <si>
+    <t>We hire teachers with the right passion and qualifications, and equip them to create amazing classroom experiences for their students.</t>
+  </si>
+  <si>
+    <t>We're committed to bringing out the best in every student.</t>
+  </si>
+  <si>
+    <t>About Us Tab:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Registration Tab:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Join Us at Baizonn!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And a contact form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contact Number*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Email*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your school</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Your grade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Class interested</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Schedule Tab:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Filter -- All classes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A timetable like the one in student first</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other Resources:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subjects offer</t>
+  </si>
+  <si>
+    <t>Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary 1-2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Secondary 3-4 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior College 1-2 </t>
+  </si>
+  <si>
+    <t>Mathematics</t>
+  </si>
+  <si>
+    <t>Primary 3-6</t>
+  </si>
+  <si>
+    <t>Junior College 1-2</t>
+  </si>
+  <si>
+    <t>Advanced Courses</t>
+  </si>
+  <si>
+    <t>Integrated Programme (IP) Mathematics and Science</t>
+  </si>
+  <si>
+    <t>International Baccalaureate (IB) Mathematics and Science</t>
+  </si>
+  <si>
+    <t>Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Academic Partner</t>
+  </si>
+  <si>
+    <t>Academic Channel Partner for S.T.E.M.</t>
+  </si>
+  <si>
+    <t>NATIONAL INSTRUMENTS -- we have its logo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Primary 3-6 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary 1-2 Science</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Secondary 3-4 Physics, Chemistry and Biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junior College H1, H2 Physics, Chemistry and Biology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Primary Mathematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seconday 1-2 Mathematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seconday 3-4 Elementary Mathematics, Additional Mathematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Junior College H1, H2, H3 Mathematics</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Awards</t>
+  </si>
+  <si>
+    <t>“A Smart Recirculating Aquaculture System”</t>
+  </si>
+  <si>
+    <t>Winner of Editor’s Choice Awards for 2016 Engineering Impact Awards ASEAN / ANZ Regional Contest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Four awards images -- see the content given</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Current Session for 2022</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View the A01 Center Info word document or the image in Discord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Include the time and monthly fee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For students that enrolled into 2 subjects, there will be 5% discount on the monthly fees.</t>
+  </si>
+  <si>
+    <t>For students that enrolled into 3 subjects, there will be 10% discount on the monthly fees</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>Basics Algebra for Beginners</t>
+  </si>
+  <si>
+    <t>38 mins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=PVoTRu3p6ug</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kWOTmyoaWJg</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,6 +841,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -500,7 +926,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -554,6 +980,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -836,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -1650,4 +2079,530 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAC2AC4-0C1C-43C2-BF40-AC3F49B518A9}">
+  <dimension ref="B3:J130"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D125" sqref="D125"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C22" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C57" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C58" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B60" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D69" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B75" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C76" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B86" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C88" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B90" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C91" s="29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D92" s="24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>137</v>
+      </c>
+      <c r="G93" t="s">
+        <v>123</v>
+      </c>
+      <c r="I93" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>124</v>
+      </c>
+      <c r="G94" t="s">
+        <v>133</v>
+      </c>
+      <c r="I94" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>125</v>
+      </c>
+      <c r="G95" t="s">
+        <v>123</v>
+      </c>
+      <c r="I95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>126</v>
+      </c>
+      <c r="G96" t="s">
+        <v>123</v>
+      </c>
+      <c r="I96" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D98" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
+        <v>128</v>
+      </c>
+      <c r="G99" t="s">
+        <v>127</v>
+      </c>
+      <c r="I99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>124</v>
+      </c>
+      <c r="G100" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>125</v>
+      </c>
+      <c r="G101" t="s">
+        <v>127</v>
+      </c>
+      <c r="I101" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>129</v>
+      </c>
+      <c r="G102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D104" s="24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D106" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C108" s="29" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C112" s="29" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D114" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C117" s="29" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D118" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C121" s="29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C125" s="29" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63822F74-9D13-43A4-90E3-224067C6FA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA5EC5-CCAD-4083-8073-28FF599E5C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10260" yWindow="2260" windowWidth="14190" windowHeight="11650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3800" yWindow="5270" windowWidth="14190" windowHeight="11650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
@@ -390,9 +390,6 @@
     <t>At Baizonn, we Equip your child to ace the semester. We provide up-to-date curriculum and targeted lesson to set your child up for success in the coming terms.</t>
   </si>
   <si>
-    <t>F.A.S.T. = Firm Foundation, Apply, Surpass, Top</t>
-  </si>
-  <si>
     <t>S.T.E.M : Science, Technology, Engineering, Maths</t>
   </si>
   <si>
@@ -630,9 +627,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Subjects offer</t>
-  </si>
-  <si>
     <t>Science</t>
   </si>
   <si>
@@ -761,6 +755,14 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=kWOTmyoaWJg</t>
+  </si>
+  <si>
+    <t>F.A.S.T. = Firm Foundation, Apply, Surpass, Top (Note for the image in the content)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Subjects offer (Note for the image in the content)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2083,17 +2085,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAC2AC4-0C1C-43C2-BF40-AC3F49B518A9}">
-  <dimension ref="B3:J130"/>
+  <dimension ref="B3:J115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D125" sqref="D125"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.3">
@@ -2103,78 +2105,78 @@
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J7" s="24"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D18" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
@@ -2209,47 +2211,112 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B32" s="27" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>93</v>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C37" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C39" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="27" t="s">
-        <v>70</v>
+      <c r="C51" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C52" t="s">
-        <v>71</v>
+      <c r="D52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C54" t="s">
-        <v>72</v>
+      <c r="D54" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C55" t="s">
-        <v>73</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C57" t="s">
-        <v>74</v>
+      <c r="D57" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C58" t="s">
-        <v>75</v>
+      <c r="D58" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
@@ -2259,345 +2326,280 @@
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C61" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C62" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D68" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D69" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C70" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D71" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B75" s="27" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C76" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B71" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C72" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C73" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B75" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C76" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D77" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.3">
+        <v>135</v>
+      </c>
+      <c r="G78" t="s">
+        <v>121</v>
+      </c>
+      <c r="I78" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+      <c r="G79" t="s">
+        <v>131</v>
+      </c>
+      <c r="I79" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+      <c r="G80" t="s">
+        <v>121</v>
+      </c>
+      <c r="I80" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D82" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+      <c r="G81" t="s">
+        <v>121</v>
+      </c>
+      <c r="I81" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D83" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B86" s="27" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C87" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C88" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B90" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C91" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="G84" t="s">
+        <v>125</v>
+      </c>
+      <c r="I84" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D92" s="24" t="s">
+      <c r="G85" t="s">
+        <v>125</v>
+      </c>
+      <c r="I85" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
-        <v>137</v>
-      </c>
-      <c r="G93" t="s">
-        <v>123</v>
-      </c>
-      <c r="I93" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>125</v>
+      </c>
+      <c r="I86" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="87" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>127</v>
+      </c>
+      <c r="G87" t="s">
+        <v>125</v>
+      </c>
+      <c r="I87" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="89" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D89" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="93" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C93" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D94" t="s">
-        <v>124</v>
-      </c>
-      <c r="G94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
         <v>133</v>
       </c>
-      <c r="I94" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D95" t="s">
-        <v>125</v>
-      </c>
-      <c r="G95" t="s">
-        <v>123</v>
-      </c>
-      <c r="I95" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D96" t="s">
-        <v>126</v>
-      </c>
-      <c r="G96" t="s">
-        <v>123</v>
-      </c>
-      <c r="I96" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D98" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C97" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="98" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D99" t="s">
-        <v>128</v>
-      </c>
-      <c r="G99" t="s">
-        <v>127</v>
-      </c>
-      <c r="I99" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="100" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>124</v>
-      </c>
-      <c r="G100" t="s">
-        <v>127</v>
-      </c>
-      <c r="I100" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D101" t="s">
-        <v>125</v>
-      </c>
-      <c r="G101" t="s">
-        <v>127</v>
-      </c>
-      <c r="I101" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="102" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D102" t="s">
-        <v>129</v>
-      </c>
-      <c r="G102" t="s">
-        <v>127</v>
-      </c>
-      <c r="I102" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D104" s="24" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="105" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D105" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="106" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D106" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="108" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C108" s="29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D109" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="110" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D110" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="112" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C112" s="29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="113" spans="3:4" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C102" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C106" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="110" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C110" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="111" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="3:4" x14ac:dyDescent="0.3">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="115" spans="3:4" x14ac:dyDescent="0.3">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="117" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C117" s="29" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="118" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D118" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="119" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D119" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="121" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C121" s="29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="122" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D122" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="123" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D123" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C125" s="29" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="126" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D126" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="127" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D127" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="128" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D128" t="s">
         <v>158</v>
-      </c>
-    </row>
-    <row r="129" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D129" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="130" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D130" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CA5EC5-CCAD-4083-8073-28FF599E5C4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A8961-2829-457D-8684-3BB684B878CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3800" yWindow="5270" windowWidth="14190" windowHeight="11650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3040" yWindow="2750" windowWidth="14190" windowHeight="11650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
@@ -2085,520 +2085,520 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAC2AC4-0C1C-43C2-BF40-AC3F49B518A9}">
-  <dimension ref="B3:J115"/>
+  <dimension ref="B2:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C76" sqref="C76"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>77</v>
+      </c>
+    </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="10" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C4" t="s">
+      <c r="C3" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="27" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9" s="27" t="s">
-        <v>78</v>
+      <c r="C9" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C10" t="s">
-        <v>79</v>
+      <c r="D10" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>86</v>
+      <c r="C15" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C16" t="s">
-        <v>84</v>
+      <c r="D16" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
         <v>90</v>
       </c>
     </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="27" t="s">
-        <v>87</v>
+      <c r="C20" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>89</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+      <c r="D23" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
         <v>69</v>
       </c>
     </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="27" t="s">
-        <v>93</v>
+      <c r="C32" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C34" t="s">
         <v>92</v>
       </c>
     </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="27" t="s">
+        <v>70</v>
+      </c>
+    </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B36" s="27" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C37" t="s">
+      <c r="C36" t="s">
         <v>71</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C38" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C39" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C40" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C43" t="s">
         <v>74</v>
       </c>
     </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="27" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B45" s="27" t="s">
-        <v>106</v>
+      <c r="C45" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C47" t="s">
-        <v>95</v>
+      <c r="D47" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D48" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>97</v>
+      <c r="C49" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C51" t="s">
-        <v>98</v>
+      <c r="D51" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>100</v>
+      <c r="C53" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C55" t="s">
-        <v>102</v>
+      <c r="D55" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
-        <v>105</v>
+      <c r="B58" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C59" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="60" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B60" s="27" t="s">
-        <v>107</v>
+      <c r="C60" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C61" t="s">
-        <v>108</v>
+      <c r="D61" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="C62" t="s">
-        <v>109</v>
+      <c r="D62" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D64" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D66" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D67" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
-        <v>115</v>
+      <c r="B69" s="27" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C70" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="71" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B71" s="27" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C72" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C73" t="s">
+      <c r="C71" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B75" s="28" t="s">
+    <row r="73" spans="2:9" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B73" s="28" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="C74" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D75" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
     <row r="76" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="C76" s="29" t="s">
-        <v>160</v>
+      <c r="D76" t="s">
+        <v>135</v>
+      </c>
+      <c r="G76" t="s">
+        <v>121</v>
+      </c>
+      <c r="I76" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="77" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D77" s="24" t="s">
-        <v>121</v>
+      <c r="D77" t="s">
+        <v>122</v>
+      </c>
+      <c r="G77" t="s">
+        <v>131</v>
+      </c>
+      <c r="I77" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="G78" t="s">
         <v>121</v>
       </c>
       <c r="I78" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G79" t="s">
+        <v>121</v>
+      </c>
+      <c r="I79" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D81" s="24" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>126</v>
+      </c>
+      <c r="G82" t="s">
+        <v>125</v>
+      </c>
+      <c r="I82" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
         <v>122</v>
       </c>
-      <c r="G79" t="s">
-        <v>131</v>
-      </c>
-      <c r="I79" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
-        <v>123</v>
-      </c>
-      <c r="G80" t="s">
-        <v>121</v>
-      </c>
-      <c r="I80" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D81" t="s">
-        <v>124</v>
-      </c>
-      <c r="G81" t="s">
-        <v>121</v>
-      </c>
-      <c r="I81" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="83" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D83" s="24" t="s">
+      <c r="G83" t="s">
         <v>125</v>
+      </c>
+      <c r="I83" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="84" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D84" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G84" t="s">
         <v>125</v>
       </c>
       <c r="I84" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="85" spans="3:9" x14ac:dyDescent="0.3">
       <c r="D85" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="G85" t="s">
         <v>125</v>
       </c>
       <c r="I85" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="86" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
-        <v>123</v>
-      </c>
-      <c r="G86" t="s">
-        <v>125</v>
-      </c>
-      <c r="I86" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D87" t="s">
-        <v>127</v>
-      </c>
-      <c r="G87" t="s">
-        <v>125</v>
-      </c>
-      <c r="I87" t="s">
-        <v>143</v>
+      <c r="D87" s="24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="88" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="89" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D89" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="90" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D90" t="s">
-        <v>129</v>
+      <c r="D89" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D91" t="s">
-        <v>130</v>
+      <c r="C91" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D92" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="93" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C93" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="94" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D94" t="s">
-        <v>134</v>
+      <c r="D93" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="95" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="D95" t="s">
-        <v>133</v>
+      <c r="C95" s="29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C97" s="29" t="s">
-        <v>144</v>
+      <c r="D97" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D98" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="99" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D99" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D100" t="s">
-        <v>147</v>
+      <c r="C100" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="101" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C102" s="29" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="103" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D103" t="s">
-        <v>150</v>
+      <c r="D102" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="104" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D104" t="s">
-        <v>149</v>
+      <c r="C104" s="29" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C106" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="107" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D107" t="s">
-        <v>151</v>
+      <c r="D106" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D108" t="s">
-        <v>152</v>
+      <c r="C108" s="29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C110" s="29" t="s">
-        <v>153</v>
+      <c r="D110" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D114" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D115" t="s">
         <v>158</v>
       </c>
     </row>

--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1A8961-2829-457D-8684-3BB684B878CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E233C76-D8F5-475F-BD78-D2B76DCDF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3040" yWindow="2750" windowWidth="14190" windowHeight="11650" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
@@ -2087,8 +2087,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAC2AC4-0C1C-43C2-BF40-AC3F49B518A9}">
   <dimension ref="B2:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/3402 Ass2.xlsx
+++ b/3402 Ass2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16567\Documents\GitHub\2023_SP51_CMS_GroupB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E233C76-D8F5-475F-BD78-D2B76DCDF04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C92B4A5-D1E6-4683-8201-0C45B4D65D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tasks Description" sheetId="1" r:id="rId1"/>
@@ -928,7 +928,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -985,6 +985,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1629,8 +1630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7794AFC9-B11D-479E-A43F-08D6EC184311}">
   <dimension ref="B2:T38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1823,7 +1824,7 @@
       <c r="F7" s="22"/>
       <c r="G7" s="22"/>
       <c r="H7" s="22"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="22"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
@@ -1844,7 +1845,7 @@
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="22"/>
+      <c r="H8" s="30"/>
       <c r="I8" s="22"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1889,7 +1890,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
-      <c r="I10" s="22"/>
+      <c r="I10" s="30"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
       <c r="L10" s="22"/>
@@ -2087,7 +2088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EAC2AC4-0C1C-43C2-BF40-AC3F49B518A9}">
   <dimension ref="B2:J113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="P88" sqref="P88"/>
     </sheetView>
   </sheetViews>
